--- a/data/ekomise.xlsx
+++ b/data/ekomise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVEL\eu-komise-embed\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1A8589-87E9-407B-B954-D63AE0924B8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28730E4-0ABB-4C9C-B369-A5BF37738954}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1296" windowWidth="17376" windowHeight="10452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,6 +699,7 @@
   <cols>
     <col min="2" max="2" width="19.109375" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/ekomise.xlsx
+++ b/data/ekomise.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVEL\eu-komise-embed\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzita\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28730E4-0ABB-4C9C-B369-A5BF37738954}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1296" windowWidth="17376" windowHeight="10452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Didier</t>
   </si>
@@ -246,9 +245,6 @@
     <t>Německo</t>
   </si>
   <si>
-    <t>Předsedkyně EK</t>
-  </si>
-  <si>
     <t>Rovana</t>
   </si>
   <si>
@@ -367,12 +363,93 @@
   </si>
   <si>
     <t>Hogan</t>
+  </si>
+  <si>
+    <t>Místopředsedkyně, hodnoty a transparentnost</t>
+  </si>
+  <si>
+    <t>Předsedkyně</t>
+  </si>
+  <si>
+    <t>Místopředseda, evropský způsob života</t>
+  </si>
+  <si>
+    <t>Komisař, krizový management</t>
+  </si>
+  <si>
+    <t>Komisařka, vnitřní záležitosti</t>
+  </si>
+  <si>
+    <t>Komisařka, doprava</t>
+  </si>
+  <si>
+    <t>Komisař, rozpočet</t>
+  </si>
+  <si>
+    <t>Komisařka, soudržnost a reformy</t>
+  </si>
+  <si>
+    <t>Komisař, zemědělství</t>
+  </si>
+  <si>
+    <t>Komisařka, rovnoprávnost</t>
+  </si>
+  <si>
+    <t>Komisař, sousedství a rozšíření</t>
+  </si>
+  <si>
+    <t>Komisař, pracovní trh</t>
+  </si>
+  <si>
+    <t>Komisařka, zdravotnictví</t>
+  </si>
+  <si>
+    <t>Komisař, obchod</t>
+  </si>
+  <si>
+    <t>Komisař, finance</t>
+  </si>
+  <si>
+    <t>Komisařka, vnitřní trh</t>
+  </si>
+  <si>
+    <t>Komisařka, mezinárodní partnerství</t>
+  </si>
+  <si>
+    <t>Komisařka, inovace</t>
+  </si>
+  <si>
+    <t>Komisař, právní stát</t>
+  </si>
+  <si>
+    <t>Místopředseda, diplomacie</t>
+  </si>
+  <si>
+    <t>Místopředseda, vztahy evropských institucí</t>
+  </si>
+  <si>
+    <t>Místopředsedkyně, demografie</t>
+  </si>
+  <si>
+    <t>Komisařka, energetika</t>
+  </si>
+  <si>
+    <t>Výkonný místopředseda, finanční stabilita</t>
+  </si>
+  <si>
+    <t>Výkonná místopředsedkyně, digitální agenda</t>
+  </si>
+  <si>
+    <t>Komisař, životní prostředí a oceány</t>
+  </si>
+  <si>
+    <t>Výkonný místopředseda, zelená politika</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +488,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,38 +765,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -729,25 +806,31 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -757,95 +840,116 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -855,25 +959,31 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -883,11 +993,14 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -897,11 +1010,14 @@
       <c r="C14" t="s">
         <v>42</v>
       </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -911,11 +1027,14 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
       <c r="E15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -925,25 +1044,31 @@
       <c r="C16" t="s">
         <v>50</v>
       </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
       </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
       <c r="E17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -954,13 +1079,13 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -970,11 +1095,14 @@
       <c r="C19" t="s">
         <v>57</v>
       </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -984,25 +1112,31 @@
       <c r="C20" t="s">
         <v>61</v>
       </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
       <c r="E20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
       </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1012,92 +1146,113 @@
       <c r="C22" t="s">
         <v>69</v>
       </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
         <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
